--- a/Etudiants/Corentin/matériels/ClasseurMatériels.xlsx
+++ b/Etudiants/Corentin/matériels/ClasseurMatériels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORENTIN1\Documents\GitHub\Systeme_Escape_Game_13emePorte\Etudiants\Corentin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORENTIN1\Documents\GitHub\Systeme_Escape_Game_13emePorte\Etudiants\Corentin\matériels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152B39A7-4D49-47C0-A22F-936B1B0C9086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400DBE18-6743-4CF8-A6E9-BCBCA4EA65BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2F2686D2-DE02-46A1-93AD-45CFFE23ADDF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>matériels envoyés par Joshua</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Capteur fin de course</t>
   </si>
   <si>
-    <t>bouton poussoir</t>
-  </si>
-  <si>
     <t>Prix(€)</t>
   </si>
   <si>
@@ -74,19 +71,34 @@
     <t>LEDS(*2)</t>
   </si>
   <si>
-    <t>Capteurs photosensibles(*8)</t>
-  </si>
-  <si>
     <t>Résistance(*2)</t>
   </si>
   <si>
     <t>relai</t>
+  </si>
+  <si>
+    <t>bouton poussoir(*7)</t>
+  </si>
+  <si>
+    <t>Capteurs photosensibles(*10)</t>
+  </si>
+  <si>
+    <t>gotronic</t>
+  </si>
+  <si>
+    <t>AMAZON</t>
+  </si>
+  <si>
+    <t>TOTAL 37,90€</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,12 +132,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -149,6 +167,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -348,50 +378,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>7531</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5A1191-7D22-4353-8273-CA5D954B3924}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3086100" y="11953875"/>
-          <a:ext cx="4772025" cy="2198281"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1988820</xdr:rowOff>
@@ -416,7 +402,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -425,6 +411,138 @@
         <a:xfrm>
           <a:off x="3086101" y="3693795"/>
           <a:ext cx="3848100" cy="1949704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1838326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2185188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679D9E06-7421-42AD-A26C-3E2118FFD66A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124201" y="11925301"/>
+          <a:ext cx="4552950" cy="2213762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>218164</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>56286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F50A0C-DA8A-4A4A-9EAD-ACB56F7519CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="15192375"/>
+          <a:ext cx="7285714" cy="6914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>189402</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>75452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE22B70-3A56-4BD2-8967-C57E6B27DBF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="22240875"/>
+          <a:ext cx="8780952" cy="5980952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -733,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745B1688-E8F7-4C85-8836-8B595877067F}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +872,7 @@
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -764,33 +882,33 @@
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3">
         <v>8.9</v>
@@ -798,7 +916,7 @@
     </row>
     <row r="9" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>5.3</v>
@@ -806,7 +924,7 @@
     </row>
     <row r="10" spans="1:5" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3">
         <v>1.9</v>
@@ -814,7 +932,7 @@
     </row>
     <row r="11" spans="1:5" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
         <v>4.8</v>
@@ -822,7 +940,7 @@
     </row>
     <row r="12" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>4.99</v>
@@ -830,24 +948,252 @@
     </row>
     <row r="13" spans="1:5" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <f>B8+B9+B10+B11+B12+B13</f>
-        <v>29.09</v>
-      </c>
+        <v>31.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="M51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G87" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A18:A53"/>
+    <mergeCell ref="A55:A85"/>
+    <mergeCell ref="G87:K87"/>
+    <mergeCell ref="M51:O52"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
